--- a/Proyecto/Documentacion/Modelo Relacional.xlsx
+++ b/Proyecto/Documentacion/Modelo Relacional.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
-  <si>
-    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, Estatus, AreaInteres, AreaOcupacion, LugarOcupacion, Encuesta, IdGrupo)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+  <si>
+    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
   </si>
   <si>
     <t>PK -&gt; NoControl</t>
@@ -61,7 +61,7 @@
     <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
   </si>
   <si>
-    <t>Reporte(IdReporte, Descripcion, Fecha, RFC)</t>
+    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
   </si>
   <si>
     <t>PK -&gt; IdReporte</t>
@@ -142,7 +142,7 @@
     <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
   </si>
   <si>
-    <t>AdministradroEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
+    <t>AdministradorEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
   </si>
   <si>
     <t>PK -&gt; RFC, IdEncuesta</t>
@@ -152,13 +152,40 @@
   </si>
   <si>
     <t>AK -&gt; RFC, IdEncuesta, FechaPublicacion</t>
+  </si>
+  <si>
+    <t>AlumnoEstatus(NoControl, IdEstatus, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; NoControl, IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; idEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; No tiene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -167,6 +194,7 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,15 +213,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -233,7 +267,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -241,7 +275,7 @@
       <c r="A5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -251,12 +285,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -264,12 +298,12 @@
       <c r="A10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -279,7 +313,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -287,7 +321,7 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -302,7 +336,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -310,7 +344,7 @@
       <c r="A20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -325,7 +359,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -348,7 +382,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -356,7 +390,7 @@
       <c r="A30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -371,7 +405,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -379,12 +413,12 @@
       <c r="A35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -394,7 +428,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -402,7 +436,7 @@
       <c r="A40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -417,7 +451,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -425,7 +459,7 @@
       <c r="A45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -440,7 +474,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -448,12 +482,12 @@
       <c r="A50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -463,12 +497,12 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -476,27 +510,27 @@
       <c r="A56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -509,7 +543,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -519,13 +553,63 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/Documentacion/Modelo Relacional.xlsx
+++ b/Proyecto/Documentacion/Modelo Relacional.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="MR 3.0" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="MR 2.0" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="MR 1.0" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="MR 4.0" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="MR 3.0" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="MR 2.0" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="MR 1.0" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="83">
   <si>
     <t>Usuario (IdUsuario, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
   </si>
@@ -51,61 +52,181 @@
     <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
   </si>
   <si>
+    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, IdUsuario)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdReporte</t>
+  </si>
+  <si>
+    <t>FK -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdReporte, Fecha</t>
+  </si>
+  <si>
+    <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEncuesta, Archivo</t>
+  </si>
+  <si>
+    <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, Nombre</t>
+  </si>
+  <si>
+    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdOcupacion, Nombre</t>
+  </si>
+  <si>
+    <t>Rol(IdRol, NombreRol, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, NombreRol</t>
+  </si>
+  <si>
+    <t>Permiso(IdPermiso, NombrePermiso, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdPermiso</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdPermiso, NombrePermiso</t>
+  </si>
+  <si>
+    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEncuesta</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEncuesta, Fecha</t>
+  </si>
+  <si>
+    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion, FechaBaja)</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdUsuario</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
+  </si>
+  <si>
+    <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; idEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, IdOcupacion, Sueldo</t>
+  </si>
+  <si>
+    <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdRol, IdPermiso</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdPermiso</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
+  </si>
+  <si>
     <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
   </si>
   <si>
-    <t>PK -&gt; IdReporte</t>
-  </si>
-  <si>
-    <t>FK -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdReporte, Fecha</t>
-  </si>
-  <si>
-    <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEncuesta, Archivo</t>
-  </si>
-  <si>
-    <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdEstatus</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, Nombre</t>
-  </si>
-  <si>
-    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdOcupacion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdOcupacion, Nombre</t>
-  </si>
-  <si>
-    <t>Rol(IdRol, NombreRol, Descripcion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, NombreRol</t>
-  </si>
-  <si>
-    <t>Permiso(IdPermiso, NombrePermiso, Descripcion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdPermiso</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdPermiso, NombrePermiso</t>
+    <t>PK -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdGrupo</t>
+  </si>
+  <si>
+    <t>AK -&gt; Nombre, APaterno, AMaterno, FechaNacimiento</t>
+  </si>
+  <si>
+    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion)</t>
+  </si>
+  <si>
+    <t>Administrador(RFC, Nombre, APaterno, Amaterno, Sexo, Email, Telefono)</t>
+  </si>
+  <si>
+    <t>PK -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
+  </si>
+  <si>
+    <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
+  </si>
+  <si>
+    <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
+  </si>
+  <si>
+    <t>PK -&gt; No tiene</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; APaterno, AMatertno, Email</t>
   </si>
   <si>
     <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
@@ -114,12 +235,6 @@
     <t>PK -&gt; NoControl, IdEncuesta</t>
   </si>
   <si>
-    <t>FK1 -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEncuesta</t>
-  </si>
-  <si>
     <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
   </si>
   <si>
@@ -141,121 +256,13 @@
     <t>PK -&gt; NoControl, IdEstatus</t>
   </si>
   <si>
-    <t>FK2 -&gt; IdEstatus</t>
-  </si>
-  <si>
     <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
   </si>
   <si>
-    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; idEstatus, IdOcupacion</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; IdEstatus</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdOcupacion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, IdOcupacion, Sueldo</t>
-  </si>
-  <si>
-    <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdRol, IdPermiso</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdPermiso</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdUsuario, IdRol</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; IdUsuario</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdGrupo</t>
-  </si>
-  <si>
-    <t>AK -&gt; Nombre, APaterno, AMaterno, FechaNacimiento</t>
-  </si>
-  <si>
-    <t>Administrador(RFC, Nombre, APaterno, Amaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>PK -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
-  </si>
-  <si>
-    <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
-  </si>
-  <si>
-    <t>PK -&gt; No tiene</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; APaterno, AMatertno, Email</t>
-  </si>
-  <si>
     <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
   </si>
   <si>
     <t>AK -&gt; No tiene</t>
-  </si>
-  <si>
-    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdUsuario, IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, Fecha</t>
-  </si>
-  <si>
-    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
-  </si>
-  <si>
-    <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdUsuario, IdEstatus</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
   </si>
 </sst>
 </file>
@@ -268,10 +275,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -300,38 +307,38 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -354,6 +361,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -445,7 +456,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -566,12 +577,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -586,22 +597,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>76</v>
+      <c r="A57" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
@@ -611,107 +622,107 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -720,6 +731,371 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -734,398 +1110,398 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
+      <c r="A20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
+      <c r="A21" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
+      <c r="A30" s="9"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7"/>
+      <c r="A35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7"/>
+      <c r="A40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5"/>
+      <c r="A50" s="9"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>31</v>
+      <c r="A51" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>32</v>
+      <c r="A52" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>35</v>
+      <c r="A55" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>36</v>
+      <c r="A57" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="8" t="s">
+    <row r="84">
+      <c r="A84" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="8" t="s">
+    <row r="85">
+      <c r="A85" s="12" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1147,364 +1523,364 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="10"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>12</v>
+      <c r="A26" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="10"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="10"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="10"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="11" t="s">
+    <row r="53">
+      <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="10" t="s">
+    <row r="54">
+      <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="11" t="s">
+    <row r="55">
+      <c r="A55" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="56">
-      <c r="A56" s="10"/>
+      <c r="A56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
-        <v>31</v>
+      <c r="A57" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
-        <v>32</v>
+      <c r="A58" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
-        <v>35</v>
+      <c r="A61" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="10"/>
+      <c r="A62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
-        <v>36</v>
+      <c r="A63" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
-        <v>37</v>
+      <c r="A64" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="10" t="s">
-        <v>38</v>
+      <c r="A65" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="s">
-        <v>39</v>
+      <c r="A67" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12" t="s">
-        <v>40</v>
+      <c r="A69" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="73">
-      <c r="A73" s="12" t="s">
-        <v>43</v>
+      <c r="A73" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="12" t="s">
-        <v>71</v>
+      <c r="A75" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="12" t="s">
+    <row r="78">
+      <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="79">
-      <c r="A79" s="12" t="s">
-        <v>72</v>
+      <c r="A79" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/Documentacion/Modelo Relacional.xlsx
+++ b/Proyecto/Documentacion/Modelo Relacional.xlsx
@@ -46,27 +46,27 @@
     <t>AK -&gt; IdGrupo, IdGeneracion, Nombre, Especialidad, Turno</t>
   </si>
   <si>
+    <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, GradoAcademicoObtenido, Domicilio, IdGrupo)</t>
+  </si>
+  <si>
     <t>Generacion(IdGeneracion, FechaInicio, FechaFin)</t>
   </si>
   <si>
-    <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, GradoAcademicoObtenido, Domicilio, Encuesta4, Encuesta6, EncuestaE, IdGrupo)</t>
-  </si>
-  <si>
     <t>PK -&gt; IdGeneracion</t>
   </si>
   <si>
+    <t>FK1-&gt; IdUsuario</t>
+  </si>
+  <si>
+    <t>FK2 -&gt;IdGrupo</t>
+  </si>
+  <si>
     <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
   </si>
   <si>
-    <t>FK1-&gt; IdUsuario</t>
-  </si>
-  <si>
     <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
   </si>
   <si>
-    <t>FK2 -&gt;IdGrupo</t>
-  </si>
-  <si>
     <t>PK -&gt; IdReporte</t>
   </si>
   <si>
@@ -85,6 +85,9 @@
     <t>AK -&gt; IdEncuesta, Archivo</t>
   </si>
   <si>
+    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, IdUsuario)</t>
+  </si>
+  <si>
     <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
   </si>
   <si>
@@ -100,9 +103,6 @@
     <t>PK -&gt; IdOcupacion</t>
   </si>
   <si>
-    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, IdUsuario)</t>
-  </si>
-  <si>
     <t>AK -&gt; IdOcupacion, Nombre</t>
   </si>
   <si>
@@ -124,66 +124,66 @@
     <t>AK -&gt; IdPermiso, NombrePermiso</t>
   </si>
   <si>
+    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEncuesta</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEncuesta, Fecha</t>
+  </si>
+  <si>
+    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion)</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdUsuario</t>
+  </si>
+  <si>
     <t>Estatus(IdEstatus, Descripcion)</t>
   </si>
   <si>
-    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
+    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
+  </si>
+  <si>
+    <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
   </si>
   <si>
     <t>AK -&gt; IdEstatus, Descripcion</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario, IdEncuesta</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, Fecha</t>
-  </si>
-  <si>
-    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion)</t>
+    <t>PK -&gt; IdUsuario, IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEstatus</t>
   </si>
   <si>
     <t>Rol(IdRol, Descripcion)</t>
   </si>
   <si>
-    <t>FK1 -&gt; IdUsuario</t>
+    <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
   </si>
   <si>
     <t>AK -&gt; IdRol, Descripcion</t>
   </si>
   <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
+    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
   </si>
   <si>
     <t>Permiso(IdPermiso, Descripcion)</t>
   </si>
   <si>
-    <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdUsuario, IdEstatus</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEstatus</t>
+    <t>PK -&gt; idEstatus, IdOcupacion</t>
   </si>
   <si>
     <t>AK -&gt; IdPermiso, Descripcion</t>
   </si>
   <si>
-    <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; idEstatus, IdOcupacion</t>
-  </si>
-  <si>
     <t>FK1 -&gt; IdEstatus</t>
   </si>
   <si>
@@ -196,85 +196,85 @@
     <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
   </si>
   <si>
+    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion, FechaBaja)</t>
+  </si>
+  <si>
     <t>PK -&gt; IdRol, IdPermiso</t>
   </si>
   <si>
-    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion, FechaBaja)</t>
-  </si>
-  <si>
     <t>FK1 -&gt; IdRol</t>
   </si>
   <si>
     <t>FK2 -&gt; IdPermiso</t>
   </si>
   <si>
+    <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>AlumnoEstatus(IdUsuario, IdEstatus)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEstatus</t>
+  </si>
+  <si>
+    <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>RolPermiso(IdRol, IdPermiso)</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, IdPermiso</t>
+  </si>
+  <si>
+    <t>UsuarioRol(IdUsuario, IdRol)</t>
+  </si>
+  <si>
     <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
   </si>
   <si>
     <t>PK -&gt; NoControl, IdEncuesta</t>
   </si>
   <si>
-    <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
+    <t>AK -&gt; IdUsuario, IdRol</t>
   </si>
   <si>
     <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario, IdRol</t>
-  </si>
-  <si>
     <t>AdministradorEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
   </si>
   <si>
     <t>PK -&gt; RFC, IdEncuesta</t>
   </si>
   <si>
-    <t>AlumnoEstatus(IdUsuario, IdEstatus)</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdRol</t>
-  </si>
-  <si>
     <t>FK1 -&gt; RFC</t>
   </si>
   <si>
-    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
-  </si>
-  <si>
     <t>AK -&gt; RFC, IdEncuesta, FechaPublicacion</t>
   </si>
   <si>
     <t>AlumnoEstatus(NoControl, IdEstatus, FechaAsignacion)</t>
   </si>
   <si>
-    <t>AK -&gt; IdUsuario, IdEstatus</t>
-  </si>
-  <si>
-    <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
-  </si>
-  <si>
     <t>PK -&gt; NoControl, IdEstatus</t>
   </si>
   <si>
-    <t>AK -&gt; IdEstatus, IdOcupacion</t>
-  </si>
-  <si>
     <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>RolPermiso(IdRol, IdPermiso)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, IdPermiso</t>
-  </si>
-  <si>
-    <t>UsuarioRol(IdUsuario, IdRol)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdRol</t>
   </si>
   <si>
     <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
@@ -331,7 +331,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +344,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -354,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -367,6 +373,7 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -448,7 +455,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -458,12 +465,12 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -493,7 +500,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -508,13 +515,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -553,12 +561,12 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -568,17 +576,17 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -593,7 +601,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
@@ -608,12 +616,12 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
@@ -628,92 +636,92 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
@@ -728,17 +736,17 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78">
@@ -753,32 +761,32 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +866,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -873,12 +881,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -918,12 +926,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -933,17 +941,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -998,87 +1006,87 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71">
@@ -1103,7 +1111,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77">
@@ -1118,32 +1126,32 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1199,12 +1207,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1236,7 +1244,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1251,15 +1259,15 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
+      <c r="A21" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -1278,7 +1286,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1301,53 +1309,53 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>23</v>
+      <c r="A31" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>24</v>
+      <c r="A32" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
-        <v>25</v>
+      <c r="A34" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
-        <v>26</v>
+      <c r="A36" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
-        <v>27</v>
+      <c r="A37" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8"/>
+      <c r="A40" s="9"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -1393,119 +1401,119 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>70</v>
+      <c r="A57" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
-        <v>77</v>
+      <c r="A63" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
-        <v>80</v>
+      <c r="A64" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
-        <v>40</v>
+      <c r="A65" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
-        <v>51</v>
+      <c r="A66" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="s">
-        <v>82</v>
+      <c r="A67" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -1514,7 +1522,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77">
@@ -1529,35 +1537,35 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6"/>
+      <c r="A80" s="7"/>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="9" t="s">
+    <row r="83">
+      <c r="A83" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1579,349 +1587,349 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
+      <c r="A11" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>13</v>
+      <c r="A14" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
-        <v>15</v>
+      <c r="A26" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11"/>
+      <c r="A45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11"/>
+      <c r="A50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="s">
-        <v>60</v>
+      <c r="A52" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="s">
-        <v>66</v>
+      <c r="A55" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11"/>
+      <c r="A56" s="12"/>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="s">
-        <v>64</v>
+      <c r="A57" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="s">
-        <v>65</v>
+      <c r="A58" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="s">
-        <v>40</v>
+      <c r="A59" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="s">
-        <v>41</v>
+      <c r="A60" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="s">
-        <v>68</v>
+      <c r="A61" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11"/>
+      <c r="A62" s="12"/>
     </row>
     <row r="63">
-      <c r="A63" s="10" t="s">
-        <v>70</v>
+      <c r="A63" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="12" t="s">
-        <v>71</v>
+      <c r="A64" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
-        <v>74</v>
+      <c r="A65" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="12" t="s">
-        <v>41</v>
+      <c r="A66" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="12" t="s">
-        <v>76</v>
+      <c r="A67" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">

--- a/Proyecto/Documentacion/Modelo Relacional.xlsx
+++ b/Proyecto/Documentacion/Modelo Relacional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
   <si>
     <t>Usuario (IdUsuario, Nombre, APaterno, AMaterno, Sexo, Email, Telefono, Contrasena)</t>
   </si>
@@ -46,93 +46,93 @@
     <t>AK -&gt; IdGrupo, IdGeneracion, Nombre, Especialidad, Turno</t>
   </si>
   <si>
+    <t>Generacion(IdGeneracion, FechaInicio, FechaFin)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdGeneracion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
+  </si>
+  <si>
+    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdReporte</t>
+  </si>
+  <si>
+    <t>FK -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdReporte, Fecha</t>
+  </si>
+  <si>
+    <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEncuesta, Archivo</t>
+  </si>
+  <si>
+    <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, Nombre</t>
+  </si>
+  <si>
     <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, GradoAcademicoObtenido, Domicilio, IdGrupo)</t>
   </si>
   <si>
-    <t>Generacion(IdGeneracion, FechaInicio, FechaFin)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdGeneracion</t>
+    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdOcupacion</t>
   </si>
   <si>
     <t>FK1-&gt; IdUsuario</t>
   </si>
   <si>
+    <t>AK -&gt; IdOcupacion, Nombre</t>
+  </si>
+  <si>
     <t>FK2 -&gt;IdGrupo</t>
   </si>
   <si>
-    <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
-  </si>
-  <si>
-    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdReporte</t>
-  </si>
-  <si>
-    <t>FK -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdReporte, Fecha</t>
-  </si>
-  <si>
-    <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEncuesta, Archivo</t>
+    <t>Rol(IdRol, NombreRol, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, NombreRol</t>
+  </si>
+  <si>
+    <t>Permiso(IdPermiso, NombrePermiso, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdPermiso</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdPermiso, NombrePermiso</t>
+  </si>
+  <si>
+    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEncuesta</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; NoControl</t>
   </si>
   <si>
     <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, IdUsuario)</t>
   </si>
   <si>
-    <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdEstatus</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, Nombre</t>
-  </si>
-  <si>
-    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdOcupacion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdOcupacion, Nombre</t>
-  </si>
-  <si>
-    <t>Rol(IdRol, NombreRol, Descripcion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, NombreRol</t>
-  </si>
-  <si>
-    <t>Permiso(IdPermiso, NombrePermiso, Descripcion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdPermiso</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdPermiso, NombrePermiso</t>
-  </si>
-  <si>
-    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdUsuario, IdEncuesta</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; NoControl</t>
-  </si>
-  <si>
     <t>FK2 -&gt; IdEncuesta</t>
   </si>
   <si>
@@ -145,172 +145,187 @@
     <t>FK1 -&gt; IdUsuario</t>
   </si>
   <si>
+    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
+  </si>
+  <si>
+    <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; idEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, IdOcupacion, Sueldo</t>
+  </si>
+  <si>
+    <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdRol, IdPermiso</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdPermiso</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>Encuesta(IdEncuesta, Descripcion, Activa)</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEncuesta, Descripcion</t>
+  </si>
+  <si>
     <t>Estatus(IdEstatus, Descripcion)</t>
   </si>
   <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
-  </si>
-  <si>
-    <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
-  </si>
-  <si>
     <t>AK -&gt; IdEstatus, Descripcion</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario, IdEstatus</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEstatus</t>
-  </si>
-  <si>
     <t>Rol(IdRol, Descripcion)</t>
   </si>
   <si>
-    <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
-  </si>
-  <si>
     <t>AK -&gt; IdRol, Descripcion</t>
   </si>
   <si>
-    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
-  </si>
-  <si>
     <t>Permiso(IdPermiso, Descripcion)</t>
   </si>
   <si>
-    <t>PK -&gt; idEstatus, IdOcupacion</t>
-  </si>
-  <si>
     <t>AK -&gt; IdPermiso, Descripcion</t>
   </si>
   <si>
-    <t>FK1 -&gt; IdEstatus</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdOcupacion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, IdOcupacion, Sueldo</t>
-  </si>
-  <si>
-    <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
-  </si>
-  <si>
     <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion, FechaBaja)</t>
   </si>
   <si>
-    <t>PK -&gt; IdRol, IdPermiso</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdPermiso</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
-  </si>
-  <si>
     <t>AlumnoEstatus(IdUsuario, IdEstatus)</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario, IdRol</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
-  </si>
-  <si>
     <t>AK -&gt; IdUsuario, IdEstatus</t>
   </si>
   <si>
+    <t>AlumnoEstatusOcupacion(IdUsuario, IdEstatus, IdOcupacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, idEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>FK3 -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>RolPermiso(IdRol, IdPermiso)</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, IdPermiso</t>
+  </si>
+  <si>
+    <t>UsuarioRol(IdUsuario, IdRol)</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdRol</t>
+  </si>
+  <si>
+    <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
+  </si>
+  <si>
+    <t>PK -&gt; NoControl, IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
+  </si>
+  <si>
+    <t>AdministradorEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; RFC, IdEncuesta</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; RFC, IdEncuesta, FechaPublicacion</t>
+  </si>
+  <si>
+    <t>AlumnoEstatus(NoControl, IdEstatus, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; NoControl, IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdGrupo</t>
+  </si>
+  <si>
+    <t>AK -&gt; Nombre, APaterno, AMaterno, FechaNacimiento</t>
+  </si>
+  <si>
+    <t>Administrador(RFC, Nombre, APaterno, Amaterno, Sexo, Email, Telefono)</t>
+  </si>
+  <si>
+    <t>PK -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
+  </si>
+  <si>
+    <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
+  </si>
+  <si>
+    <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
+  </si>
+  <si>
+    <t>PK -&gt; No tiene</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; APaterno, AMatertno, Email</t>
+  </si>
+  <si>
     <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, IdOcupacion</t>
-  </si>
-  <si>
-    <t>RolPermiso(IdRol, IdPermiso)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, IdPermiso</t>
-  </si>
-  <si>
-    <t>UsuarioRol(IdUsuario, IdRol)</t>
-  </si>
-  <si>
-    <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl, IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
-  </si>
-  <si>
-    <t>AdministradorEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; RFC, IdEncuesta</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; RFC, IdEncuesta, FechaPublicacion</t>
-  </si>
-  <si>
-    <t>AlumnoEstatus(NoControl, IdEstatus, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl, IdEstatus</t>
-  </si>
-  <si>
-    <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdGrupo</t>
-  </si>
-  <si>
-    <t>AK -&gt; Nombre, APaterno, AMaterno, FechaNacimiento</t>
-  </si>
-  <si>
-    <t>Administrador(RFC, Nombre, APaterno, Amaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>PK -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
-  </si>
-  <si>
-    <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
-  </si>
-  <si>
-    <t>PK -&gt; No tiene</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; APaterno, AMatertno, Email</t>
   </si>
   <si>
     <t>AK -&gt; No tiene</t>
@@ -370,10 +385,10 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -455,7 +470,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -465,12 +480,12 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -500,12 +515,12 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -515,38 +530,38 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>20</v>
+      <c r="A27" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -555,18 +570,18 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>22</v>
+      <c r="A30" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -576,17 +591,18 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -596,17 +612,17 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -616,17 +632,17 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -636,22 +652,22 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
@@ -666,12 +682,12 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
@@ -686,17 +702,17 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
@@ -706,87 +722,92 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>54</v>
+      <c r="A71" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
-        <v>56</v>
+      <c r="A72" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>57</v>
+      <c r="A73" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s">
-        <v>61</v>
+      <c r="A77" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>75</v>
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>67</v>
+      <c r="A83" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>78</v>
+      <c r="A86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -866,12 +887,12 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -881,37 +902,37 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -921,17 +942,17 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -941,17 +962,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -961,17 +982,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -981,17 +1002,17 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -1001,22 +1022,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
@@ -1036,7 +1057,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
@@ -1051,17 +1072,17 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -1071,72 +1092,72 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83">
@@ -1146,12 +1167,12 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1179,12 +1200,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1194,7 +1215,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1202,7 +1223,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1217,7 +1238,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1225,7 +1246,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1240,26 +1261,26 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1267,22 +1288,22 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
+      <c r="A22" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
+      <c r="A23" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1290,22 +1311,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1313,12 +1334,12 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1328,7 +1349,7 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -1336,12 +1357,12 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -1351,7 +1372,7 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -1359,45 +1380,45 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -1405,17 +1426,17 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
@@ -1425,25 +1446,25 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>82</v>
+      <c r="A59" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="60">
@@ -1453,7 +1474,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
@@ -1461,27 +1482,27 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -1489,27 +1510,27 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74">
@@ -1517,27 +1538,27 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>62</v>
+      <c r="A77" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80">
@@ -1545,12 +1566,12 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83">
@@ -1560,12 +1581,12 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1588,22 +1609,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -1634,12 +1655,12 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1649,7 +1670,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1657,12 +1678,12 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -1672,7 +1693,7 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -1680,12 +1701,12 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -1695,7 +1716,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -1703,22 +1724,22 @@
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -1726,22 +1747,22 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -1749,12 +1770,12 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -1764,7 +1785,7 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -1772,12 +1793,12 @@
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -1787,7 +1808,7 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -1795,12 +1816,12 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -1810,7 +1831,7 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -1818,27 +1839,27 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
@@ -1846,17 +1867,17 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
@@ -1866,7 +1887,7 @@
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
@@ -1874,17 +1895,17 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -1894,57 +1915,57 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/Documentacion/Modelo Relacional.xlsx
+++ b/Proyecto/Documentacion/Modelo Relacional.xlsx
@@ -19,144 +19,216 @@
     <t>Usuario (IdUsuario, Nombre, APaterno, AMaterno, Sexo, Email, Telefono, Contrasena)</t>
   </si>
   <si>
+    <t>PK -&gt; IdUsuario</t>
+  </si>
+  <si>
+    <t>FK -&gt; No tiene</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, Email</t>
+  </si>
+  <si>
+    <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, GradoAcademicoObtenido, Domicilio, IdGrupo)</t>
+  </si>
+  <si>
+    <t>FK1-&gt; IdUsuario</t>
+  </si>
+  <si>
+    <t>FK2 -&gt;IdGrupo</t>
+  </si>
+  <si>
+    <t>Grupo(IdGrupo, Nombre, Especialidad, Turno, Semestre, IdGeneracion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdGrupo</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdGeneracion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdGrupo, IdGeneracion, Nombre, Especialidad, Turno</t>
+  </si>
+  <si>
+    <t>Generacion(IdGeneracion, FechaInicio, FechaFin)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdGeneracion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
+  </si>
+  <si>
+    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, IdUsuario)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdReporte</t>
+  </si>
+  <si>
+    <t>FK -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdReporte, Fecha</t>
+  </si>
+  <si>
+    <t>Encuesta(IdEncuesta, Descripcion, Activa)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEncuesta, Descripcion</t>
+  </si>
+  <si>
+    <t>Estatus(IdEstatus, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, Descripcion</t>
+  </si>
+  <si>
+    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdOcupacion, Nombre</t>
+  </si>
+  <si>
+    <t>Rol(IdRol, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, Descripcion</t>
+  </si>
+  <si>
+    <t>Permiso(IdPermiso, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdPermiso</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdPermiso, Descripcion</t>
+  </si>
+  <si>
+    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEncuesta</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEncuesta, Fecha</t>
+  </si>
+  <si>
+    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion, FechaBaja)</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdUsuario</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
+  </si>
+  <si>
+    <t>AlumnoEstatus(IdUsuario, IdEstatus)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEstatus</t>
+  </si>
+  <si>
+    <t>AlumnoEstatusOcupacion(IdUsuario, IdEstatus, IdOcupacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, idEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>FK3 -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>RolPermiso(IdRol, IdPermiso)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdRol, IdPermiso</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdPermiso</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, IdPermiso</t>
+  </si>
+  <si>
+    <t>UsuarioRol(IdUsuario, IdRol)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdRol</t>
+  </si>
+  <si>
     <t>Usuario (IdUsuario, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario</t>
-  </si>
-  <si>
-    <t>FK -&gt; No tiene</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, Email</t>
-  </si>
-  <si>
     <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, Encuesta)</t>
   </si>
   <si>
-    <t>Grupo(IdGrupo, Nombre, Especialidad, Turno, Semestre, IdGeneracion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdGrupo</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdGeneracion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdGrupo, IdGeneracion, Nombre, Especialidad, Turno</t>
-  </si>
-  <si>
-    <t>Generacion(IdGeneracion, FechaInicio, FechaFin)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdGeneracion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
-  </si>
-  <si>
     <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
   </si>
   <si>
-    <t>PK -&gt; IdReporte</t>
-  </si>
-  <si>
-    <t>FK -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdReporte, Fecha</t>
-  </si>
-  <si>
     <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
   </si>
   <si>
-    <t>PK -&gt; IdEncuesta</t>
-  </si>
-  <si>
     <t>AK -&gt; IdEncuesta, Archivo</t>
   </si>
   <si>
     <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdEstatus</t>
-  </si>
-  <si>
     <t>AK -&gt; IdEstatus, Nombre</t>
   </si>
   <si>
-    <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, GradoAcademicoObtenido, Domicilio, IdGrupo)</t>
-  </si>
-  <si>
-    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdOcupacion</t>
-  </si>
-  <si>
-    <t>FK1-&gt; IdUsuario</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdOcupacion, Nombre</t>
-  </si>
-  <si>
-    <t>FK2 -&gt;IdGrupo</t>
-  </si>
-  <si>
     <t>Rol(IdRol, NombreRol, Descripcion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdRol</t>
-  </si>
-  <si>
     <t>AK -&gt; IdRol, NombreRol</t>
   </si>
   <si>
     <t>Permiso(IdPermiso, NombrePermiso, Descripcion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdPermiso</t>
-  </si>
-  <si>
     <t>AK -&gt; IdPermiso, NombrePermiso</t>
   </si>
   <si>
-    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdUsuario, IdEncuesta</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, IdUsuario)</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, Fecha</t>
-  </si>
-  <si>
     <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion)</t>
   </si>
   <si>
-    <t>FK1 -&gt; IdUsuario</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
-  </si>
-  <si>
     <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario, IdEstatus</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEstatus</t>
-  </si>
-  <si>
     <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
   </si>
   <si>
@@ -178,85 +250,49 @@
     <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdRol, IdPermiso</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdPermiso</t>
-  </si>
-  <si>
     <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
   </si>
   <si>
     <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario, IdRol</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdRol</t>
-  </si>
-  <si>
     <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
   </si>
   <si>
-    <t>Encuesta(IdEncuesta, Descripcion, Activa)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEncuesta, Descripcion</t>
-  </si>
-  <si>
-    <t>Estatus(IdEstatus, Descripcion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, Descripcion</t>
-  </si>
-  <si>
-    <t>Rol(IdRol, Descripcion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, Descripcion</t>
-  </si>
-  <si>
-    <t>Permiso(IdPermiso, Descripcion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdPermiso, Descripcion</t>
-  </si>
-  <si>
-    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion, FechaBaja)</t>
-  </si>
-  <si>
-    <t>AlumnoEstatus(IdUsuario, IdEstatus)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEstatus</t>
-  </si>
-  <si>
-    <t>AlumnoEstatusOcupacion(IdUsuario, IdEstatus, IdOcupacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdUsuario, idEstatus, IdOcupacion</t>
-  </si>
-  <si>
-    <t>FK3 -&gt; IdOcupacion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, IdOcupacion</t>
-  </si>
-  <si>
-    <t>RolPermiso(IdRol, IdPermiso)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, IdPermiso</t>
-  </si>
-  <si>
-    <t>UsuarioRol(IdUsuario, IdRol)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdRol</t>
+    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdGrupo</t>
+  </si>
+  <si>
+    <t>AK -&gt; Nombre, APaterno, AMaterno, FechaNacimiento</t>
+  </si>
+  <si>
+    <t>Administrador(RFC, Nombre, APaterno, Amaterno, Sexo, Email, Telefono)</t>
+  </si>
+  <si>
+    <t>PK -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
+  </si>
+  <si>
+    <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
+  </si>
+  <si>
+    <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
+  </si>
+  <si>
+    <t>PK -&gt; No tiene</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; APaterno, AMatertno, Email</t>
   </si>
   <si>
     <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
@@ -287,42 +323,6 @@
   </si>
   <si>
     <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdGrupo</t>
-  </si>
-  <si>
-    <t>AK -&gt; Nombre, APaterno, AMaterno, FechaNacimiento</t>
-  </si>
-  <si>
-    <t>Administrador(RFC, Nombre, APaterno, Amaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>PK -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
-  </si>
-  <si>
-    <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
-  </si>
-  <si>
-    <t>PK -&gt; No tiene</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; APaterno, AMatertno, Email</t>
   </si>
   <si>
     <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
@@ -355,14 +355,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,37 +382,37 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,150 +455,150 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -607,207 +607,207 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -827,142 +827,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -977,202 +977,202 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1195,398 +1195,398 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
+      <c r="A7" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
+      <c r="A11" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
+      <c r="A12" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
+      <c r="A13" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
+      <c r="A16" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
+      <c r="A17" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
+      <c r="A18" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
+      <c r="A19" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7"/>
+      <c r="A20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
+      <c r="A21" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>14</v>
+      <c r="A22" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
+      <c r="A23" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
+      <c r="A24" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
+      <c r="A26" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
+      <c r="A27" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>3</v>
+      <c r="A28" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>19</v>
+      <c r="A29" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>20</v>
+      <c r="A31" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>21</v>
+      <c r="A32" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>3</v>
+      <c r="A33" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>22</v>
+      <c r="A34" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>3</v>
+      <c r="A38" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>27</v>
+      <c r="A39" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>29</v>
+      <c r="A41" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>30</v>
+      <c r="A42" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>3</v>
+      <c r="A43" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>3</v>
+      <c r="A48" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
+      <c r="A49" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>81</v>
+      <c r="A51" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>82</v>
+      <c r="A52" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>37</v>
+      <c r="A53" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="7"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="7"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
+    <row r="84">
+      <c r="A84" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="7"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="85">
-      <c r="A85" s="10" t="s">
-        <v>61</v>
+      <c r="A85" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1608,339 +1608,339 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
+    <row r="34">
+      <c r="A34" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+    <row r="35">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
+    <row r="58">
+      <c r="A58" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
+    <row r="62">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="s">
+    <row r="64">
+      <c r="A64" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="12"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="s">
+    <row r="65">
+      <c r="A65" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="12"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="13" t="s">
+    <row r="66">
+      <c r="A66" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="12"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="12"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
@@ -1950,17 +1950,17 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">

--- a/Proyecto/Documentacion/Modelo Relacional.xlsx
+++ b/Proyecto/Documentacion/Modelo Relacional.xlsx
@@ -16,16 +16,190 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
   <si>
+    <t>Usuario (IdUsuario, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario</t>
+  </si>
+  <si>
+    <t>FK -&gt; No tiene</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, Email</t>
+  </si>
+  <si>
+    <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, Encuesta)</t>
+  </si>
+  <si>
     <t>Usuario (IdUsuario, Nombre, APaterno, AMaterno, Sexo, Email, Telefono, Contrasena)</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario</t>
-  </si>
-  <si>
-    <t>FK -&gt; No tiene</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, Email</t>
+    <t>Grupo(IdGrupo, Nombre, Especialidad, Turno, Semestre, IdGeneracion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdGrupo</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdGeneracion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdGrupo, IdGeneracion, Nombre, Especialidad, Turno</t>
+  </si>
+  <si>
+    <t>Generacion(IdGeneracion, FechaInicio, FechaFin)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdGeneracion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
+  </si>
+  <si>
+    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdReporte</t>
+  </si>
+  <si>
+    <t>FK -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdReporte, Fecha</t>
+  </si>
+  <si>
+    <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEncuesta, Archivo</t>
+  </si>
+  <si>
+    <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, Nombre</t>
+  </si>
+  <si>
+    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdOcupacion, Nombre</t>
+  </si>
+  <si>
+    <t>Rol(IdRol, NombreRol, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, NombreRol</t>
+  </si>
+  <si>
+    <t>Permiso(IdPermiso, NombrePermiso, Descripcion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdPermiso</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdPermiso, NombrePermiso</t>
+  </si>
+  <si>
+    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEncuesta</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEncuesta, Fecha</t>
+  </si>
+  <si>
+    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion)</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdUsuario</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
+  </si>
+  <si>
+    <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; idEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, IdOcupacion, Sueldo</t>
+  </si>
+  <si>
+    <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdRol, IdPermiso</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdPermiso</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdRol</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
+  </si>
+  <si>
+    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdGrupo</t>
+  </si>
+  <si>
+    <t>AK -&gt; Nombre, APaterno, AMaterno, FechaNacimiento</t>
   </si>
   <si>
     <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, GradoAcademicoObtenido, Domicilio, IdGrupo)</t>
@@ -37,142 +211,115 @@
     <t>FK2 -&gt;IdGrupo</t>
   </si>
   <si>
-    <t>Grupo(IdGrupo, Nombre, Especialidad, Turno, Semestre, IdGeneracion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdGrupo</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdGeneracion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdGrupo, IdGeneracion, Nombre, Especialidad, Turno</t>
-  </si>
-  <si>
-    <t>Generacion(IdGeneracion, FechaInicio, FechaFin)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdGeneracion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
-  </si>
-  <si>
     <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, IdUsuario)</t>
   </si>
   <si>
-    <t>PK -&gt; IdReporte</t>
-  </si>
-  <si>
-    <t>FK -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdReporte, Fecha</t>
+    <t>Administrador(RFC, Nombre, APaterno, Amaterno, Sexo, Email, Telefono)</t>
+  </si>
+  <si>
+    <t>PK -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
+  </si>
+  <si>
+    <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
   </si>
   <si>
     <t>Encuesta(IdEncuesta, Descripcion, Activa)</t>
   </si>
   <si>
-    <t>PK -&gt; IdEncuesta</t>
-  </si>
-  <si>
     <t>AK -&gt; IdEncuesta, Descripcion</t>
   </si>
   <si>
     <t>Estatus(IdEstatus, Descripcion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdEstatus</t>
+    <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
   </si>
   <si>
     <t>AK -&gt; IdEstatus, Descripcion</t>
   </si>
   <si>
-    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdOcupacion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdOcupacion, Nombre</t>
+    <t>PK -&gt; No tiene</t>
+  </si>
+  <si>
+    <t>FK -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; APaterno, AMatertno, Email</t>
   </si>
   <si>
     <t>Rol(IdRol, Descripcion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdRol</t>
-  </si>
-  <si>
     <t>AK -&gt; IdRol, Descripcion</t>
   </si>
   <si>
     <t>Permiso(IdPermiso, Descripcion)</t>
   </si>
   <si>
-    <t>PK -&gt; IdPermiso</t>
-  </si>
-  <si>
     <t>AK -&gt; IdPermiso, Descripcion</t>
   </si>
   <si>
-    <t>AlumnoEncuesta(IdUsuario, IdEncuesta, Fecha)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdUsuario, IdEncuesta</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, Fecha</t>
+    <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
   </si>
   <si>
     <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion, FechaBaja)</t>
   </si>
   <si>
-    <t>FK1 -&gt; IdUsuario</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEncuesta, FechaPublicacion</t>
+    <t>PK -&gt; NoControl, IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
+  </si>
+  <si>
+    <t>AdministradorEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
   </si>
   <si>
     <t>AlumnoEstatus(IdUsuario, IdEstatus)</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario, IdEstatus</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEstatus</t>
+    <t>PK -&gt; RFC, IdEncuesta</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; RFC</t>
+  </si>
+  <si>
+    <t>AK -&gt; RFC, IdEncuesta, FechaPublicacion</t>
   </si>
   <si>
     <t>AK -&gt; IdUsuario, IdEstatus</t>
   </si>
   <si>
+    <t>AlumnoEstatus(NoControl, IdEstatus, FechaAsignacion)</t>
+  </si>
+  <si>
     <t>AlumnoEstatusOcupacion(IdUsuario, IdEstatus, IdOcupacion)</t>
   </si>
   <si>
     <t>PK -&gt; IdUsuario, idEstatus, IdOcupacion</t>
   </si>
   <si>
+    <t>PK -&gt; NoControl, IdEstatus</t>
+  </si>
+  <si>
+    <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
+  </si>
+  <si>
     <t>FK3 -&gt; IdOcupacion</t>
   </si>
   <si>
+    <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
+  </si>
+  <si>
     <t>AK -&gt; IdEstatus, IdOcupacion</t>
   </si>
   <si>
     <t>RolPermiso(IdRol, IdPermiso)</t>
   </si>
   <si>
-    <t>PK -&gt; IdRol, IdPermiso</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdPermiso</t>
+    <t>AK -&gt; No tiene</t>
   </si>
   <si>
     <t>AK -&gt; IdRol, IdPermiso</t>
@@ -181,154 +328,7 @@
     <t>UsuarioRol(IdUsuario, IdRol)</t>
   </si>
   <si>
-    <t>PK -&gt; IdUsuario, IdRol</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdRol</t>
-  </si>
-  <si>
     <t>AK -&gt; IdUsuario, IdRol</t>
-  </si>
-  <si>
-    <t>Usuario (IdUsuario, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, Encuesta)</t>
-  </si>
-  <si>
-    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
-  </si>
-  <si>
-    <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEncuesta, Archivo</t>
-  </si>
-  <si>
-    <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, Nombre</t>
-  </si>
-  <si>
-    <t>Rol(IdRol, NombreRol, Descripcion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, NombreRol</t>
-  </si>
-  <si>
-    <t>Permiso(IdPermiso, NombrePermiso, Descripcion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdPermiso, NombrePermiso</t>
-  </si>
-  <si>
-    <t>AdministradorEncuesta(IdUsuario, IdEncuesta, FechaPublicacion)</t>
-  </si>
-  <si>
-    <t>AlumnoEstatus(IdUsuario, IdEstatus, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdEstatus, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; idEstatus, IdOcupacion</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; IdEstatus</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdOcupacion</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEstatus, IdOcupacion, Sueldo</t>
-  </si>
-  <si>
-    <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdGrupo</t>
-  </si>
-  <si>
-    <t>AK -&gt; Nombre, APaterno, AMaterno, FechaNacimiento</t>
-  </si>
-  <si>
-    <t>Administrador(RFC, Nombre, APaterno, Amaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>PK -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
-  </si>
-  <si>
-    <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
-  </si>
-  <si>
-    <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
-  </si>
-  <si>
-    <t>PK -&gt; No tiene</t>
-  </si>
-  <si>
-    <t>FK -&gt; IdRol</t>
-  </si>
-  <si>
-    <t>AK -&gt; APaterno, AMatertno, Email</t>
-  </si>
-  <si>
-    <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl, IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
-  </si>
-  <si>
-    <t>AdministradorEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; RFC, IdEncuesta</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; RFC</t>
-  </si>
-  <si>
-    <t>AK -&gt; RFC, IdEncuesta, FechaPublicacion</t>
-  </si>
-  <si>
-    <t>AlumnoEstatus(NoControl, IdEstatus, FechaAsignacion)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl, IdEstatus</t>
-  </si>
-  <si>
-    <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
-  </si>
-  <si>
-    <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
-  </si>
-  <si>
-    <t>AK -&gt; No tiene</t>
   </si>
 </sst>
 </file>
@@ -341,10 +341,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -355,14 +355,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,39 +379,39 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -449,8 +449,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -469,8 +469,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -479,13 +479,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -495,32 +495,32 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -530,38 +530,38 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2"/>
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
+      <c r="A27" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -570,18 +570,18 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
+      <c r="A30" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>21</v>
+      <c r="A32" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -590,19 +590,19 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
+      <c r="A35" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F37" s="9"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -612,17 +612,17 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>27</v>
+      <c r="A42" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
@@ -631,18 +631,18 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>29</v>
+      <c r="A45" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>30</v>
+      <c r="A47" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -651,118 +651,118 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>32</v>
+      <c r="A50" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>38</v>
+      <c r="A58" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>41</v>
+      <c r="A64" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>44</v>
+      <c r="A68" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>45</v>
+      <c r="A70" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>46</v>
+      <c r="A71" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>39</v>
+      <c r="A72" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>43</v>
+      <c r="A73" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>47</v>
+      <c r="A74" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>48</v>
+      <c r="A75" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>49</v>
+      <c r="A77" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -781,13 +781,13 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>53</v>
+      <c r="A81" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>54</v>
+      <c r="A83" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="84">
@@ -797,7 +797,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86">
@@ -806,8 +806,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>57</v>
+      <c r="A87" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +827,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -847,7 +847,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -867,32 +867,32 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -902,37 +902,37 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -942,17 +942,17 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -962,17 +962,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -982,17 +982,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -1002,17 +1002,17 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1022,112 +1022,112 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76">
@@ -1147,12 +1147,12 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
@@ -1162,7 +1162,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
@@ -1172,7 +1172,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1195,138 +1195,138 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>58</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>59</v>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="15">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>60</v>
+      <c r="A21" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+    <row r="24">
+      <c r="A24" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
+      <c r="A26" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -1334,12 +1334,12 @@
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1349,7 +1349,7 @@
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -1357,12 +1357,12 @@
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -1372,109 +1372,109 @@
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>65</v>
+      <c r="A41" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="45">
-      <c r="A45" s="5"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>67</v>
+      <c r="A46" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="10"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>93</v>
+      <c r="A51" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>94</v>
+      <c r="A52" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>95</v>
+      <c r="A55" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5"/>
+      <c r="A56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
-        <v>96</v>
+      <c r="A57" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>97</v>
+      <c r="A58" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>98</v>
+      <c r="A59" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>36</v>
+      <c r="A60" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>99</v>
+      <c r="A61" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62">
@@ -1482,27 +1482,27 @@
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -1510,55 +1510,55 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="10"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
-        <v>77</v>
+      <c r="A75" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>78</v>
+      <c r="A79" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="80">
@@ -1566,7 +1566,7 @@
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
@@ -1576,7 +1576,7 @@
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1608,364 +1608,364 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
+      <c r="A1" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+    <row r="58">
+      <c r="A58" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+    <row r="62">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="64">
+      <c r="A64" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="65">
+      <c r="A65" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="69">
+      <c r="A69" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="s">
+    <row r="70">
+      <c r="A70" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="6"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="s">
+    <row r="71">
+      <c r="A71" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="6" t="s">
+    <row r="75">
+      <c r="A75" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
